--- a/.idea/ambs.xlsx
+++ b/.idea/ambs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4000000000</v>
+        <v>43650000000</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42096734928</v>
+        <v>59556734928</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6998000000</v>
+        <v>12148000000</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18083280071</v>
+        <v>29183280071</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>600000000</v>
+        <v>36447000000</v>
       </c>
     </row>
     <row r="10">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6000000000</v>
+        <v>80597000000</v>
       </c>
     </row>
     <row r="11">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52921000000</v>
+        <v>92706000000</v>
       </c>
     </row>
     <row r="12">
@@ -553,1457 +553,697 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12831000000</v>
+        <v>18607000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20062200</t>
+          <t>20042000</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12568000000</v>
+        <v>17551000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20071400</t>
+          <t>20042100</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17460000000</v>
+        <v>52942000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20071600</t>
+          <t>20051300</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5150000000</v>
+        <v>187655000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20072100</t>
+          <t>20032300</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11100000000</v>
+        <v>10477000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20042000</t>
+          <t>20032400</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2763000000</v>
+        <v>23909000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20042100</t>
+          <t>20032600</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12615000000</v>
+        <v>15686000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20051300</t>
+          <t>20032700</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107110000000</v>
+        <v>16000000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20051800</t>
+          <t>20033000</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18707000000</v>
+        <v>11190000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20052000</t>
+          <t>20033100</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28502000000</v>
+        <v>28794000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20061100</t>
+          <t>20041500</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18210000000</v>
+        <v>115754000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20061700</t>
+          <t>20031200</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1700000000</v>
+        <v>1445000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20062200</t>
+          <t>20031800</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13199000000</v>
+        <v>88000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20032300</t>
+          <t>20012100</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9328000000</v>
+        <v>889000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20032400</t>
+          <t>20021200</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23909000000</v>
+        <v>4243000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20032600</t>
+          <t>20021800</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15686000000</v>
+        <v>623000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20032700</t>
+          <t>20022000</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16000000000</v>
+        <v>1714000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20033000</t>
+          <t>20011400</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11190000000</v>
+        <v>3023000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20033100</t>
+          <t>20011600</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28794000000</v>
+        <v>377000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20041500</t>
+          <t>19121200</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115162000000</v>
+        <v>5815142017</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20042000</t>
+          <t>19121700</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14708000000</v>
+        <v>888000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20042100</t>
+          <t>19121900</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>40041000000</v>
+        <v>4120546360</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20051300</t>
+          <t>19102100</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80545000000</v>
+        <v>2426000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20051800</t>
+          <t>19111300</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17140000000</v>
+        <v>4346000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20052000</t>
+          <t>19111800</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>46095000000</v>
+        <v>668000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20061100</t>
+          <t>19112000</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21575000000</v>
+        <v>2512000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20061700</t>
+          <t>19101000</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4076000000</v>
+        <v>3997000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20062200</t>
+          <t>19101700</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13883000000</v>
+        <v>376000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20031200</t>
+          <t>19082100</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>660000000</v>
+        <v>1191000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20031800</t>
+          <t>19091200</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88000000</v>
+        <v>2444000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20032300</t>
+          <t>19091700</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>317000000</v>
+        <v>219000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20041500</t>
+          <t>19091900</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>592000000</v>
+        <v>1420000000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20042000</t>
+          <t>19072200</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80000000</v>
+        <v>644720002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20042100</t>
+          <t>19081300</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>286000000</v>
+        <v>2394000000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20012100</t>
+          <t>19081900</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160000000</v>
+        <v>151000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20021200</t>
+          <t>19071500</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2565000000</v>
+        <v>1077014791</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20021800</t>
+          <t>19071800</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>425000000</v>
+        <v>115000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20022000</t>
+          <t>19061300</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>914000000</v>
+        <v>159000000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20031200</t>
+          <t>19062000</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>785000000</v>
+        <v>98000000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20032300</t>
+          <t>19051300</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>832000000</v>
+        <v>102000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20011400</t>
+          <t>19051600</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1525000000</v>
+        <v>42000000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20011600</t>
+          <t>19052100</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>177000000</v>
+        <v>89000000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20012100</t>
+          <t>19061800</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>729000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20021200</t>
+          <t>19041000</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1678000000</v>
+        <v>236000000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20021800</t>
+          <t>19041500</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>198000000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20022000</t>
+          <t>19041700</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>800000000</v>
+        <v>71000000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>19121200</t>
+          <t>19031300</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4631142017</v>
+        <v>158000000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19121700</t>
+          <t>19031800</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>888000000</v>
+        <v>52000000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19121900</t>
+          <t>19032100</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2976546360</v>
+        <v>76000000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20011400</t>
+          <t>19021300</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1498000000</v>
+        <v>162000000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20011600</t>
+          <t>19021900</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>200000000</v>
+        <v>52000000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>19102100</t>
+          <t>19022100</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>600000000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19111300</t>
+          <t>19011400</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3334000000</v>
+        <v>163000000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>19111800</t>
+          <t>19011700</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>467000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>19112000</t>
+          <t>19012300</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1558000000</v>
+        <v>75000000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19121200</t>
+          <t>18121300</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1184000000</v>
+        <v>144486761</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19121900</t>
+          <t>18121800</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1144000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>19101000</t>
+          <t>18121900</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3086000000</v>
+        <v>150084653</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19101700</t>
+          <t>18111300</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>201000000</v>
+        <v>1845000000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19102100</t>
+          <t>18111500</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>956000000</v>
+        <v>210000000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>19111300</t>
+          <t>18111900</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1012000000</v>
+        <v>887000000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>19111800</t>
+          <t>18101100</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>201000000</v>
+        <v>3200000000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>19112000</t>
+          <t>18101600</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>954000000</v>
+        <v>426000000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>19082100</t>
+          <t>18101800</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>320000000</v>
+        <v>1447000000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>19091200</t>
+          <t>18091300</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2444000000</v>
+        <v>4298000000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>19091700</t>
+          <t>18091800</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>148000000</v>
+        <v>445000000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>19091900</t>
+          <t>18092000</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1045000000</v>
+        <v>1829000000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>19101000</t>
+          <t>18081300</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>911000000</v>
+        <v>1945000000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>19101700</t>
+          <t>18081600</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>175000000</v>
+        <v>243000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>19102100</t>
+          <t>18082100</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>870000000</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>19072200</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>120000000</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>19081300</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1440000000</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>19081900</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>63000000</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>19082100</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>429000000</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>19091700</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>71000000</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>19091900</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>375000000</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>19071500</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>1009014791</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>19071800</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>89000000</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>19072200</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>524720002</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>19081300</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>954000000</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>19081900</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>88000000</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>19082100</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>442000000</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>19061300</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>67000000</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>19062000</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>19071500</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>68000000</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>19071800</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>26000000</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>19051300</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>92000000</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>19051600</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>37000000</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>19052100</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>43000000</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>19061300</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>79000000</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>19061800</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>26000000</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>19062000</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>38000000</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>19041000</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>165000000</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>19041500</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>55000000</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>19041700</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>38000000</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>19051300</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>19051600</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>19052100</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>46000000</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>19061300</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>13000000</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>19031300</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>77000000</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>19031800</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>19032100</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>39000000</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>19041000</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>71000000</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>19041500</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>19041700</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>19021300</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>19021900</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>19022100</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>38000000</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>19031300</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>81000000</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>19031800</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>27000000</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>19032100</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>37000000</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>19011400</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>81000000</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>19011700</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>19012300</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>36000000</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>19021300</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>82000000</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>19021900</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>27000000</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>19022100</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>39000000</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>18121300</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>144486761</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>18121800</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>27000000</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>18121900</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>107084653</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>19011400</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>82000000</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>19011700</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>19012300</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>39000000</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>18111300</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>156000000</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>18111500</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>27000000</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>18111900</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>37000000</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>18121800</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>23000000</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>18121900</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>43000000</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>18101100</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>1886000000</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>18101600</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>199000000</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>18101800</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>948000000</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>18111300</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>1689000000</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>18111500</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>183000000</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>18111900</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>850000000</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>18091300</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>2155000000</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>18091800</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>181000000</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>18092000</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>1271000000</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>18101100</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>1314000000</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>18101600</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>227000000</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>18101800</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>499000000</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>18081300</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>1945000000</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>18081600</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>243000000</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>18082100</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
         <v>1572000000</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>18091300</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>2143000000</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>18091800</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>264000000</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>18092000</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>558000000</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/ambs.xlsx
+++ b/.idea/ambs.xlsx
@@ -449,607 +449,607 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20062200</t>
+          <t>20072100</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43650000000</v>
+        <v>31183280071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20071400</t>
+          <t>20081300</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59556734928</v>
+        <v>94704000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20071600</t>
+          <t>20081700</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12148000000</v>
+        <v>11944000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20072100</t>
+          <t>20082000</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29183280071</v>
+        <v>27441000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20081300</t>
+          <t>20091400</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26772000000</v>
+        <v>48998000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20081700</t>
+          <t>20091700</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4472000000</v>
+        <v>4519000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20082000</t>
+          <t>20092100</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8840000000</v>
+        <v>11585000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20051800</t>
+          <t>20062200</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36447000000</v>
+        <v>43650000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20052000</t>
+          <t>20071400</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80597000000</v>
+        <v>59556734928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20061100</t>
+          <t>20071600</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92706000000</v>
+        <v>12148000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20061700</t>
+          <t>20051800</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18607000000</v>
+        <v>36447000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20042000</t>
+          <t>20052000</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17551000000</v>
+        <v>80597000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20042100</t>
+          <t>20061100</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52942000000</v>
+        <v>92706000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20051300</t>
+          <t>20061700</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>187655000000</v>
+        <v>18607000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20032300</t>
+          <t>20042000</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10477000000</v>
+        <v>17551000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20032400</t>
+          <t>20042100</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23909000000</v>
+        <v>52942000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20032600</t>
+          <t>20051300</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15686000000</v>
+        <v>187655000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20032700</t>
+          <t>20032300</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16000000000</v>
+        <v>10477000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20033000</t>
+          <t>20032400</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11190000000</v>
+        <v>23909000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20033100</t>
+          <t>20032600</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28794000000</v>
+        <v>15686000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20041500</t>
+          <t>20032700</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115754000000</v>
+        <v>16000000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20031200</t>
+          <t>20033000</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1445000000</v>
+        <v>11190000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20031800</t>
+          <t>20033100</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>88000000</v>
+        <v>28794000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20012100</t>
+          <t>20041500</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>889000000</v>
+        <v>115754000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20021200</t>
+          <t>20031200</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4243000000</v>
+        <v>1445000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20021800</t>
+          <t>20031800</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>623000000</v>
+        <v>88000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20022000</t>
+          <t>20012100</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1714000000</v>
+        <v>889000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20011400</t>
+          <t>20021200</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3023000000</v>
+        <v>4243000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20011600</t>
+          <t>20021800</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>377000000</v>
+        <v>623000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>19121200</t>
+          <t>20022000</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5815142017</v>
+        <v>1714000000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>19121700</t>
+          <t>20011400</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>888000000</v>
+        <v>3023000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>19121900</t>
+          <t>20011600</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4120546360</v>
+        <v>377000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19102100</t>
+          <t>19121200</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2426000000</v>
+        <v>5815142017</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>19111300</t>
+          <t>19121700</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4346000000</v>
+        <v>888000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19111800</t>
+          <t>19121900</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>668000000</v>
+        <v>4120546360</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19112000</t>
+          <t>19102100</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2512000000</v>
+        <v>2426000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19101000</t>
+          <t>19111300</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3997000000</v>
+        <v>4346000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19101700</t>
+          <t>19111800</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>376000000</v>
+        <v>668000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>19082100</t>
+          <t>19112000</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1191000000</v>
+        <v>2512000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>19091200</t>
+          <t>19101000</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2444000000</v>
+        <v>3997000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19091700</t>
+          <t>19101700</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>219000000</v>
+        <v>376000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>19091900</t>
+          <t>19082100</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1420000000</v>
+        <v>1191000000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19072200</t>
+          <t>19091200</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>644720002</v>
+        <v>2444000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>19081300</t>
+          <t>19091700</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2394000000</v>
+        <v>219000000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19081900</t>
+          <t>19091900</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151000000</v>
+        <v>1420000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19071500</t>
+          <t>19072200</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1077014791</v>
+        <v>644720002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>19071800</t>
+          <t>19081300</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>115000000</v>
+        <v>2394000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>19061300</t>
+          <t>19081900</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>159000000</v>
+        <v>151000000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>19062000</t>
+          <t>19071500</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>98000000</v>
+        <v>1077014791</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19051300</t>
+          <t>19071800</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>102000000</v>
+        <v>115000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>19051600</t>
+          <t>19061300</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>42000000</v>
+        <v>159000000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>19052100</t>
+          <t>19062000</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>89000000</v>
+        <v>98000000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19061800</t>
+          <t>19051300</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>26000000</v>
+        <v>102000000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19041000</t>
+          <t>19051600</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>236000000</v>
+        <v>42000000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19041500</t>
+          <t>19052100</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>80000000</v>
+        <v>89000000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19041700</t>
+          <t>19061800</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>71000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>19031300</t>
+          <t>19041000</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>158000000</v>
+        <v>236000000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19031800</t>
+          <t>19041500</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>52000000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19032100</t>
+          <t>19041700</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>76000000</v>
+        <v>71000000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19021300</t>
+          <t>19031300</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>162000000</v>
+        <v>158000000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>19021900</t>
+          <t>19031800</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1059,57 +1059,57 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>19022100</t>
+          <t>19032100</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>77000000</v>
+        <v>76000000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19011400</t>
+          <t>19021300</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>163000000</v>
+        <v>162000000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>19011700</t>
+          <t>19021900</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50000000</v>
+        <v>52000000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>19012300</t>
+          <t>19022100</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>75000000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>18121300</t>
+          <t>19011400</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>144486761</v>
+        <v>163000000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>18121800</t>
+          <t>19011700</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1119,131 +1119,131 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>18121900</t>
+          <t>19012300</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>150084653</v>
+        <v>75000000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>18111300</t>
+          <t>18121300</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1845000000</v>
+        <v>144486761</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>18111500</t>
+          <t>18121800</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>210000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>18111900</t>
+          <t>18121900</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>887000000</v>
+        <v>150084653</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>18101100</t>
+          <t>18111300</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3200000000</v>
+        <v>1845000000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>18101600</t>
+          <t>18111500</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>426000000</v>
+        <v>210000000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>18101800</t>
+          <t>18111900</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1447000000</v>
+        <v>887000000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>18091300</t>
+          <t>18101100</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4298000000</v>
+        <v>3200000000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>18091800</t>
+          <t>18101600</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>445000000</v>
+        <v>426000000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>18092000</t>
+          <t>18101800</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1829000000</v>
+        <v>1447000000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>18081300</t>
+          <t>18091300</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1945000000</v>
+        <v>2155000000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>18081600</t>
+          <t>18091800</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>243000000</v>
+        <v>181000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>18082100</t>
+          <t>18092000</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1572000000</v>
+        <v>1271000000</v>
       </c>
     </row>
   </sheetData>
